--- a/commands/database.xlsx
+++ b/commands/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Car Rent</t>
   </si>
@@ -187,13 +187,118 @@
   </si>
   <si>
     <t>services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maneger type/role </t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>- Overall operations management</t>
+  </si>
+  <si>
+    <t>- Business strategy development and implementation</t>
+  </si>
+  <si>
+    <t>- Budgeting and financial oversight</t>
+  </si>
+  <si>
+    <t>- Staff management and training</t>
+  </si>
+  <si>
+    <t>- Vendor and partner relations</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>- Assisting customers with reservations and inquiries</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>- Handling rental agreements and paperwork</t>
+  </si>
+  <si>
+    <t>- Providing information about available cars and pricing</t>
+  </si>
+  <si>
+    <t>- Addressing customer concerns and resolving issues</t>
+  </si>
+  <si>
+    <t>Fleet Manager</t>
+  </si>
+  <si>
+    <t>- Managing the rental car fleet</t>
+  </si>
+  <si>
+    <t>- Vehicle maintenance and scheduling</t>
+  </si>
+  <si>
+    <t>- Ensuring vehicles are clean and in good condition</t>
+  </si>
+  <si>
+    <t>- Coordinating with repair services</t>
+  </si>
+  <si>
+    <t>Rental Agent</t>
+  </si>
+  <si>
+    <t>- Processing rental transactions</t>
+  </si>
+  <si>
+    <t>- Checking in/out rental vehicles</t>
+  </si>
+  <si>
+    <t>- Inspecting vehicles for damage and reporting</t>
+  </si>
+  <si>
+    <t>- Handling payments and refunds</t>
+  </si>
+  <si>
+    <t>Marketing Specialist</t>
+  </si>
+  <si>
+    <t>- Creating and implementing marketing campaigns</t>
+  </si>
+  <si>
+    <t>- Promoting rental services through various channels</t>
+  </si>
+  <si>
+    <t>- Analyzing market trends and customer feedback</t>
+  </si>
+  <si>
+    <t>- Collaborating with partners for promotions</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>- Managing financial records and transactions</t>
+  </si>
+  <si>
+    <t>- Payroll processing for employees</t>
+  </si>
+  <si>
+    <t>- Preparing financial reports and tax documentation</t>
+  </si>
+  <si>
+    <t>- Budget tracking and financial analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,16 +320,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF444654"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,19 +362,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N21"/>
+  <dimension ref="C3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,304 +750,482 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="3:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="4:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="4:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="4:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="4:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="4:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="H21" s="3"/>
+      <c r="G19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="4:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="4:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="10"/>
+      <c r="H24" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="10"/>
+      <c r="H25" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="10"/>
+      <c r="H26" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="10"/>
+      <c r="H27" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="10"/>
+      <c r="H30" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="10"/>
+      <c r="H31" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="10"/>
+      <c r="H33" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="10"/>
+      <c r="H35" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="10"/>
+      <c r="H37" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="10"/>
+      <c r="H38" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="10"/>
+      <c r="H39" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="10"/>
+      <c r="H41" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="10"/>
+      <c r="H42" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="10"/>
+      <c r="H43" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="10"/>
+      <c r="H45" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="10"/>
+      <c r="H46" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="10"/>
+      <c r="H47" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:M4"/>
+    <mergeCell ref="G19:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
